--- a/pricelist templates/price_bunting.xlsx
+++ b/pricelist templates/price_bunting.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>machine</t>
   </si>
@@ -49,7 +49,16 @@
     <t>rope</t>
   </si>
   <si>
-    <t>Rolland VSI 640 | rolland</t>
+    <t>tripod</t>
+  </si>
+  <si>
+    <t>tstand</t>
+  </si>
+  <si>
+    <t>xstand</t>
+  </si>
+  <si>
+    <t>Rolland Eco-Solvent | rolland</t>
   </si>
   <si>
     <t>Tarpaulin 380gsm | tarpaulin-380gsm</t>
@@ -106,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -114,6 +123,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -383,16 +395,25 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
+      <c r="A2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>1440.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>6.0</v>
@@ -421,16 +442,25 @@
       <c r="L2" s="2">
         <v>1.0</v>
       </c>
+      <c r="M2" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>1440.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>6.0</v>
@@ -459,16 +489,25 @@
       <c r="L3" s="2">
         <v>1.0</v>
       </c>
+      <c r="M3" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
+      <c r="A4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>1200.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>6.0</v>
@@ -497,27 +536,36 @@
       <c r="L4" s="2">
         <v>1.0</v>
       </c>
+      <c r="M4" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>740.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
         <v>6.0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>0.8</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>500.0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>1.5</v>
       </c>
       <c r="H5" s="2">
@@ -535,150 +583,159 @@
       <c r="L5" s="2">
         <v>1.0</v>
       </c>
+      <c r="M5" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
